--- a/out/tables/1000 sims/table_model 1-4.xlsx
+++ b/out/tables/1000 sims/table_model 1-4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wyx97\Documents\GitHub\Research\out\tables\1000 sims\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3bb343f27726e020/wxb/研究生学习/research/论文/project/Research/out/tables/1000 sims tables 三位小数/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{EFB6EB4C-C470-4B21-B238-1C3539B76F38}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:40009_{EFB6EB4C-C470-4B21-B238-1C3539B76F38}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{959B6D37-27EE-CE4A-B183-42C0C299289B}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="5380" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19820" windowHeight="12900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table_model1" sheetId="1" r:id="rId1"/>
@@ -76,8 +76,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1021,14 +1021,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>8.1629470192067996E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>5.8313045444678503E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>3.7279114565248801E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1143,7 +1143,7 @@
         <v>2.5617339256180201E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>0.103414789485476</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>7.4540773052547096E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>4.1484400693774903E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1235,7 +1235,7 @@
         <v>6.3643814818088604E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>4.5536807346323503E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1281,7 +1281,7 @@
         <v>2.8221040118575999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>2.0084120431579599E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>6.4524327069827705E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>4.2892616930106299E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -1380,16 +1380,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1412,7 +1412,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1423,19 +1423,19 @@
         <v>10</v>
       </c>
       <c r="D2">
-        <v>1.1153220388126599</v>
+        <v>1.1144071200719501</v>
       </c>
       <c r="E2">
-        <v>0.147185376392865</v>
+        <v>0.14973291235559999</v>
       </c>
       <c r="F2">
-        <v>3.1171637077254699</v>
+        <v>3.11297339336432</v>
       </c>
       <c r="G2">
-        <v>0.151185527091073</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.14745251843482299</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1446,19 +1446,19 @@
         <v>20</v>
       </c>
       <c r="D3">
-        <v>1.1052362688689199</v>
+        <v>1.1003794781384999</v>
       </c>
       <c r="E3">
-        <v>0.138669783763576</v>
+        <v>0.13423934523716299</v>
       </c>
       <c r="F3">
-        <v>3.1041334676563901</v>
+        <v>3.1001610760992002</v>
       </c>
       <c r="G3">
-        <v>0.13598659662174001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.13482873078122901</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1469,19 +1469,19 @@
         <v>50</v>
       </c>
       <c r="D4">
-        <v>1.0491970880556301</v>
+        <v>1.0496217492534801</v>
       </c>
       <c r="E4">
-        <v>9.0630066162018103E-2</v>
+        <v>9.0145879540721605E-2</v>
       </c>
       <c r="F4">
-        <v>3.0493453853502102</v>
+        <v>3.0490095889408901</v>
       </c>
       <c r="G4">
-        <v>8.9608018803312706E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>9.0702777419081906E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1492,19 +1492,19 @@
         <v>100</v>
       </c>
       <c r="D5">
-        <v>1.00906440324163</v>
+        <v>1.0074437620579799</v>
       </c>
       <c r="E5">
-        <v>3.1807510564955399E-2</v>
+        <v>3.0946485212409901E-2</v>
       </c>
       <c r="F5">
-        <v>3.0068399302774198</v>
+        <v>3.0089142963967901</v>
       </c>
       <c r="G5">
-        <v>3.1775987927787498E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3.1812145618730699E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1515,19 +1515,19 @@
         <v>100</v>
       </c>
       <c r="D6">
-        <v>1.1180887876324599</v>
+        <v>1.1165508181657999</v>
       </c>
       <c r="E6">
-        <v>0.14980771850518601</v>
+        <v>0.15272213370791499</v>
       </c>
       <c r="F6">
-        <v>3.1161987451642701</v>
+        <v>3.1191295522460498</v>
       </c>
       <c r="G6">
-        <v>0.14900400597855701</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.15270920851432501</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1538,19 +1538,19 @@
         <v>100</v>
       </c>
       <c r="D7">
-        <v>1.09938726162413</v>
+        <v>1.10461515413277</v>
       </c>
       <c r="E7">
-        <v>0.133898306525122</v>
+        <v>0.135819043970651</v>
       </c>
       <c r="F7">
-        <v>3.1012820898272202</v>
+        <v>3.10291220697325</v>
       </c>
       <c r="G7">
-        <v>0.13736003778988001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.13690419933457901</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1561,19 +1561,19 @@
         <v>100</v>
       </c>
       <c r="D8">
-        <v>1.0460175086421399</v>
+        <v>1.0464208603751499</v>
       </c>
       <c r="E8">
-        <v>8.7425032385122198E-2</v>
+        <v>8.7461214351175001E-2</v>
       </c>
       <c r="F8">
-        <v>3.0461766202331702</v>
+        <v>3.0456177046444202</v>
       </c>
       <c r="G8">
-        <v>8.8388884633814793E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8.6496097565004995E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1584,19 +1584,19 @@
         <v>10</v>
       </c>
       <c r="D9">
-        <v>1.2156347158516201</v>
+        <v>1.0020677590070499</v>
       </c>
       <c r="E9">
-        <v>0.22171638401924601</v>
+        <v>6.6813203707790703E-2</v>
       </c>
       <c r="F9">
-        <v>3.21828343632622</v>
+        <v>3.0011270535075001</v>
       </c>
       <c r="G9">
-        <v>0.224147531698285</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>6.6223274597166204E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1607,19 +1607,19 @@
         <v>20</v>
       </c>
       <c r="D10">
-        <v>1.2209093866524099</v>
+        <v>0.99902474763091398</v>
       </c>
       <c r="E10">
-        <v>0.223917894972336</v>
+        <v>4.5662062753283897E-2</v>
       </c>
       <c r="F10">
-        <v>3.2199573150584699</v>
+        <v>2.9981241671445602</v>
       </c>
       <c r="G10">
-        <v>0.22288496277808301</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4.6718260377899397E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1630,19 +1630,19 @@
         <v>50</v>
       </c>
       <c r="D11">
-        <v>1.2210217822638301</v>
+        <v>1.0009662083508399</v>
       </c>
       <c r="E11">
-        <v>0.22215546550570101</v>
+        <v>2.80797945538751E-2</v>
       </c>
       <c r="F11">
-        <v>3.2211870789081201</v>
+        <v>3.0002464189554701</v>
       </c>
       <c r="G11">
-        <v>0.22235492484585001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2.9306649282984099E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1653,19 +1653,19 @@
         <v>100</v>
       </c>
       <c r="D12">
-        <v>1.22298642747862</v>
+        <v>0.99926334914968395</v>
       </c>
       <c r="E12">
-        <v>0.22354731838081299</v>
+        <v>1.9858636710854801E-2</v>
       </c>
       <c r="F12">
-        <v>3.2207436249665098</v>
+        <v>3.0005725882709799</v>
       </c>
       <c r="G12">
-        <v>0.221332091303898</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2.0206944422107902E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -1676,19 +1676,19 @@
         <v>100</v>
       </c>
       <c r="D13">
-        <v>1.2214335669763401</v>
+        <v>1.0002628071061801</v>
       </c>
       <c r="E13">
-        <v>0.22673092336262499</v>
+        <v>6.9812502181977806E-2</v>
       </c>
       <c r="F13">
-        <v>3.2208846908914799</v>
+        <v>3.0026873636580902</v>
       </c>
       <c r="G13">
-        <v>0.22585536663394301</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>6.6539671738999204E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1699,19 +1699,19 @@
         <v>100</v>
       </c>
       <c r="D14">
-        <v>1.22079599103829</v>
+        <v>1.0016135193628799</v>
       </c>
       <c r="E14">
-        <v>0.22356892876339399</v>
+        <v>4.4747101722207999E-2</v>
       </c>
       <c r="F14">
-        <v>3.2230090318941902</v>
+        <v>3.0009567019417398</v>
       </c>
       <c r="G14">
-        <v>0.22574838887066001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4.6362213407505501E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -1722,16 +1722,16 @@
         <v>100</v>
       </c>
       <c r="D15">
-        <v>1.22174852692823</v>
+        <v>1.00049063703998</v>
       </c>
       <c r="E15">
-        <v>0.22288762914392499</v>
+        <v>2.8445795229248901E-2</v>
       </c>
       <c r="F15">
-        <v>3.2216488591971602</v>
+        <v>2.9995629731911402</v>
       </c>
       <c r="G15">
-        <v>0.22279030039574901</v>
+        <v>2.8329954060904699E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1741,16 +1741,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1779,7 +1779,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1808,7 +1808,7 @@
         <v>1.2661319237181501</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1837,7 +1837,7 @@
         <v>0.26431175029369097</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1866,7 +1866,7 @@
         <v>7.37272394436016E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1895,7 +1895,7 @@
         <v>4.2815316595036498E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1924,7 +1924,7 @@
         <v>1.14859958364338</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>0.26923628887870599</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1982,7 +1982,7 @@
         <v>7.1628214889966096E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2011,7 +2011,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -2069,7 +2069,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -2098,7 +2098,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -2127,7 +2127,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -2156,7 +2156,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -2192,16 +2192,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2242,7 +2242,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2283,7 +2283,7 @@
         <v>0.375895718791106</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>0.33026468787430902</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2365,7 +2365,7 @@
         <v>0.40725558541933399</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2406,7 +2406,7 @@
         <v>0.33405831172003297</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v>0.59859529406141998</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2488,7 +2488,7 @@
         <v>0.46782526128570201</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2529,7 +2529,7 @@
         <v>0.287715495230353</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2570,7 +2570,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2611,7 +2611,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -2652,7 +2652,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -2693,7 +2693,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -2734,7 +2734,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -2775,7 +2775,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
         <v>8</v>
       </c>
